--- a/Tests/Data/OP_ELUT_PMSM.xlsx
+++ b/Tests/Data/OP_ELUT_PMSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Code\Pyleecan_EEC\pyleecan\Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB59A21-9748-4A1E-9F1D-18AF1136BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE61867-94A4-441E-9438-DC8E6605543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="1716" windowWidth="18828" windowHeight="10644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1068" windowWidth="18828" windowHeight="10644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -855,9 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -877,10 +879,10 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>-134.03280000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>105.99039999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +890,21 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>-15.1289</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>27.244599999999998</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Data/OP_ELUT_PMSM.xlsx
+++ b/Tests/Data/OP_ELUT_PMSM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Code\Pyleecan_EEC\pyleecan\Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE61867-94A4-441E-9438-DC8E6605543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ADCA54-63AF-4E76-99D3-E997BDC3E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1068" windowWidth="18828" windowHeight="10644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,7 +858,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
